--- a/Output/Relatorio-Erros-RO254678M.xlsx
+++ b/Output/Relatorio-Erros-RO254678M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9902267D-9825-4299-BB89-7FE5ABF99472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9919878-68AE-4A0F-ACBD-9899B69B7353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7797DD8-71FB-4E38-A1D4-5973B7F28DD0}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-RO254678M.xlsx
+++ b/Output/Relatorio-Erros-RO254678M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDB87A2-780F-4633-A7FC-431AE522B5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB8F26B-7EEA-49EA-8175-DFA49F72E92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2EB01A13-7198-408A-8142-8BDAC5E84E12}"/>
   </bookViews>
